--- a/src/test/resources/excel/bind_template6.xlsx
+++ b/src/test/resources/excel/bind_template6.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>numeric: Option[Double],</t>
   </si>
@@ -107,6 +107,10 @@
   </si>
   <si>
     <t>${userDate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>var variable</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -578,15 +582,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H2"/>
+  <dimension ref="B1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,8 +612,11 @@
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
         <v>6</v>
       </c>
